--- a/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/AURORA-ADT/2/report-checklist.xlsx
+++ b/GATEWAY/A1#111EXPRIVIA000/EXPRIVIA/AURORA-ADT/2/report-checklist.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="185" documentId="8_{63E9DA7A-E562-4196-8B7D-ABAC9D8BE15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65519FDE-166D-4D49-8050-8361C56156E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -32025,23 +32025,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100794258E7DE47134588D45098EBDB60F8" ma:contentTypeVersion="4" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="2dbc010f7356a33b20da83a73eb190a5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf65ce-24cf-486b-995b-57ece8b70f4e" xmlns:ns3="c50f76eb-a136-4a5c-b9b3-fbcc59ed104d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbb2aea3e03736235287e3873b29b8db" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100794258E7DE47134588D45098EBDB60F8" ma:contentTypeVersion="6" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3194f2ccada4dbd4f766fc5cce730de0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0bdf65ce-24cf-486b-995b-57ece8b70f4e" xmlns:ns3="c50f76eb-a136-4a5c-b9b3-fbcc59ed104d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b17b18953fe681e8c031b46ce8399c7" ns2:_="" ns3:_="">
     <xsd:import namespace="0bdf65ce-24cf-486b-995b-57ece8b70f4e"/>
     <xsd:import namespace="c50f76eb-a136-4a5c-b9b3-fbcc59ed104d"/>
     <xsd:element name="properties">
@@ -32054,6 +32039,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -32072,6 +32059,16 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="12" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="13" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -32204,25 +32201,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C8BC82A-7102-4313-BB0C-4C51CC2434A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67CBBC7B-62D8-4480-9D66-C095B0112D05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA1FBF3F-379F-4445-8EC7-3724B3E01CCB}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097B1022-1E03-4022-B756-1D5D590C8ADC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -32238,4 +32233,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67CBBC7B-62D8-4480-9D66-C095B0112D05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C8BC82A-7102-4313-BB0C-4C51CC2434A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>